--- a/Feinplanung (Bsp).xlsx
+++ b/Feinplanung (Bsp).xlsx
@@ -422,13 +422,16 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,25 +443,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,7 +461,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +777,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,8 +854,8 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -867,8 +867,8 @@
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="15">
         <v>40851</v>
       </c>
@@ -892,8 +892,8 @@
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="15">
         <v>40851</v>
       </c>
@@ -917,8 +917,8 @@
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="15">
         <v>40851</v>
       </c>
@@ -942,8 +942,8 @@
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="18"/>
       <c r="E10" s="15"/>
       <c r="F10" s="14"/>
@@ -955,8 +955,8 @@
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="18">
         <v>40851</v>
       </c>
@@ -980,8 +980,8 @@
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="18"/>
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
@@ -993,8 +993,8 @@
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="18">
         <v>40851</v>
       </c>
@@ -1018,8 +1018,8 @@
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="18"/>
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
@@ -1031,8 +1031,8 @@
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="18">
         <v>40851</v>
       </c>
@@ -1056,8 +1056,8 @@
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="18"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
@@ -1069,8 +1069,8 @@
       <c r="A17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="18">
         <v>40861</v>
       </c>
@@ -1094,8 +1094,8 @@
       <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="18">
         <v>40861</v>
       </c>
@@ -1119,8 +1119,8 @@
       <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="18">
         <v>40856</v>
       </c>
@@ -1144,8 +1144,8 @@
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
@@ -1157,8 +1157,8 @@
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="15">
         <v>40877</v>
       </c>
@@ -1182,8 +1182,8 @@
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="15">
         <v>40877</v>
       </c>
@@ -1207,8 +1207,8 @@
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="18"/>
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
@@ -1220,8 +1220,8 @@
       <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="18">
         <v>40877</v>
       </c>
@@ -1245,8 +1245,8 @@
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="18"/>
       <c r="E25" s="15"/>
       <c r="F25" s="14"/>
@@ -1258,8 +1258,8 @@
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="18">
         <v>40877</v>
       </c>
@@ -1283,8 +1283,8 @@
       <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="18">
         <v>40880</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="A28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="18">
         <v>40887</v>
       </c>
@@ -1333,8 +1333,8 @@
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
@@ -1346,8 +1346,8 @@
       <c r="A30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="15">
         <v>40892</v>
       </c>
@@ -1371,8 +1371,8 @@
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="15">
         <v>40892</v>
       </c>
@@ -1396,8 +1396,8 @@
       <c r="A32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="15">
         <v>40903</v>
       </c>
@@ -1421,8 +1421,8 @@
       <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="45"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="18"/>
       <c r="E33" s="15"/>
       <c r="F33" s="14"/>
@@ -1434,8 +1434,8 @@
       <c r="A34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="18">
         <v>40892</v>
       </c>
@@ -1459,8 +1459,8 @@
       <c r="A35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="18">
         <v>40918</v>
       </c>
@@ -1484,8 +1484,8 @@
       <c r="A36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="18">
         <v>40923</v>
       </c>
@@ -1509,8 +1509,8 @@
       <c r="A37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="18"/>
       <c r="E37" s="15"/>
       <c r="F37" s="14"/>
@@ -1522,8 +1522,8 @@
       <c r="A38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="18">
         <v>40898</v>
       </c>
@@ -1547,8 +1547,8 @@
       <c r="A39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="18">
         <v>40913</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="18"/>
       <c r="E40" s="15"/>
       <c r="F40" s="14"/>
@@ -1585,8 +1585,8 @@
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="18">
         <v>40931</v>
       </c>
@@ -1610,8 +1610,8 @@
       <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -1623,8 +1623,8 @@
       <c r="A43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="18">
         <v>40934</v>
       </c>
@@ -1648,8 +1648,8 @@
       <c r="A44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -1661,8 +1661,8 @@
       <c r="A45" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="18">
         <v>40938</v>
       </c>
@@ -1686,8 +1686,8 @@
       <c r="A46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
@@ -1699,8 +1699,8 @@
       <c r="A47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="18">
         <v>40933</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="A48" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="18">
         <v>40933</v>
       </c>
@@ -1749,8 +1749,8 @@
       <c r="A49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -1762,8 +1762,8 @@
       <c r="A50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="18">
         <v>40955</v>
       </c>
@@ -1787,8 +1787,8 @@
       <c r="A51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
@@ -1800,8 +1800,8 @@
       <c r="A52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="18">
         <v>40957</v>
       </c>
@@ -1825,8 +1825,8 @@
       <c r="A53" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -1838,8 +1838,8 @@
       <c r="A54" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="9">
         <v>40957</v>
       </c>
@@ -1863,8 +1863,8 @@
       <c r="A55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1876,8 +1876,8 @@
       <c r="A56" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="6">
         <v>40957</v>
       </c>
@@ -1901,8 +1901,8 @@
       <c r="A57" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -1914,8 +1914,8 @@
       <c r="A58" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="9">
         <v>40974</v>
       </c>
@@ -1939,8 +1939,8 @@
       <c r="A59" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -1952,8 +1952,8 @@
       <c r="A60" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="9">
         <v>40974</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="A61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -1990,8 +1990,8 @@
       <c r="A62" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="18">
         <v>40981</v>
       </c>
@@ -2015,8 +2015,8 @@
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -2028,8 +2028,8 @@
       <c r="A64" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="18">
         <v>40981</v>
       </c>
@@ -2053,8 +2053,8 @@
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="41"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="10"/>
@@ -2066,8 +2066,8 @@
       <c r="A66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="42"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="18">
         <v>40981</v>
       </c>
@@ -2091,8 +2091,8 @@
       <c r="A67" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -2104,8 +2104,8 @@
       <c r="A68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="9">
         <v>40983</v>
       </c>
@@ -2129,8 +2129,8 @@
       <c r="A69" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="43"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
       <c r="D69" s="9">
         <v>40990</v>
       </c>
@@ -2154,8 +2154,8 @@
       <c r="A70" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -2167,8 +2167,8 @@
       <c r="A71" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="9">
         <v>40997</v>
       </c>
@@ -2192,8 +2192,8 @@
       <c r="A72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -2205,8 +2205,8 @@
       <c r="A73" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="9">
         <v>40997</v>
       </c>
@@ -2230,8 +2230,8 @@
       <c r="A74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="44"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="10"/>
@@ -2243,8 +2243,8 @@
       <c r="A75" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="18">
         <v>41037</v>
       </c>
@@ -2268,8 +2268,8 @@
       <c r="A76" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="44"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="18">
         <v>41050</v>
       </c>
@@ -2293,8 +2293,8 @@
       <c r="A77" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="41"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
       <c r="F77" s="10"/>
@@ -2306,8 +2306,8 @@
       <c r="A78" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="18">
         <v>41037</v>
       </c>
@@ -2331,8 +2331,8 @@
       <c r="A79" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="43"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="18">
         <v>41050</v>
       </c>
@@ -2356,8 +2356,8 @@
       <c r="A80" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
@@ -2369,8 +2369,8 @@
       <c r="A81" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="9">
         <v>41004</v>
       </c>
@@ -2394,8 +2394,8 @@
       <c r="A82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
@@ -2407,8 +2407,8 @@
       <c r="A83" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="9">
         <v>41004</v>
       </c>
@@ -2432,8 +2432,8 @@
       <c r="A84" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -2445,8 +2445,8 @@
       <c r="A85" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="9">
         <v>41030</v>
       </c>
@@ -2470,8 +2470,8 @@
       <c r="A86" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35" t="s">
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="10"/>
@@ -2485,8 +2485,8 @@
       <c r="A87" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="9">
         <v>41025</v>
       </c>
@@ -2510,8 +2510,8 @@
       <c r="A88" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35" t="s">
+      <c r="B88" s="36"/>
+      <c r="C88" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="10"/>
@@ -2525,8 +2525,8 @@
       <c r="A89" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="9">
         <v>41045</v>
       </c>
@@ -2550,8 +2550,8 @@
       <c r="A90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37" t="s">
+      <c r="B90" s="38"/>
+      <c r="C90" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="10"/>
@@ -2565,8 +2565,8 @@
       <c r="A91" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="9">
         <v>41045</v>
       </c>
@@ -2590,8 +2590,8 @@
       <c r="A92" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="34" t="s">
+      <c r="B92" s="46"/>
+      <c r="C92" s="48" t="s">
         <v>52</v>
       </c>
       <c r="D92" s="29"/>
@@ -2605,8 +2605,8 @@
       <c r="A93" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33" t="s">
+      <c r="B93" s="47"/>
+      <c r="C93" s="47" t="s">
         <v>52</v>
       </c>
       <c r="D93" s="31">
@@ -2627,24 +2627,38 @@
   </sheetData>
   <autoFilter ref="A5:I40"/>
   <mergeCells count="70">
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B46:B48"/>
@@ -2661,42 +2675,28 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
